--- a/data/trans_bre/P1422-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Edad-trans_bre.xlsx
@@ -654,7 +654,7 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>1.911113669915539</v>
+        <v>1.848481551714539</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8627996923420523</v>
+        <v>-0.8950713918941585</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9821685385155021</v>
+        <v>-0.830053070221206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9591980022781695</v>
+        <v>-1.156211061127481</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3819839343989505</v>
+        <v>0.3783290815496722</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.298722699406184</v>
+        <v>-2.550275713838294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.963992278334721</v>
+        <v>-0.9674418469921506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2667003208217539</v>
+        <v>-0.2680197193388859</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.429071335981092</v>
+        <v>-0.4343656349664203</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7283218249016566</v>
+        <v>0.7115361534465338</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -818,7 +818,7 @@
         <v>-0.4442365041939022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.3570357549464847</v>
+        <v>-0.3570357549464845</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5188069275027202</v>
@@ -827,7 +827,7 @@
         <v>-0.5807378774250339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4020533421539477</v>
+        <v>-0.4020533421539476</v>
       </c>
     </row>
     <row r="14">
@@ -838,22 +838,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6279729326830251</v>
+        <v>-0.6225951739870924</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.262308295421414</v>
+        <v>-1.332927224862361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.365359894097887</v>
+        <v>-1.36403935421692</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7466391489997353</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.740104440344368</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.8195864362002808</v>
+        <v>-0.8225226108252159</v>
       </c>
     </row>
     <row r="15">
@@ -864,22 +862,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.516984635757481</v>
+        <v>1.315030412957634</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2947975179486646</v>
+        <v>0.329154409447474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3093528568931188</v>
+        <v>0.4059006808702368</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.429106654145418</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>2.293768428726397</v>
-      </c>
+        <v>5.615964198931964</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.139329779550577</v>
+        <v>1.358749339910641</v>
       </c>
     </row>
     <row r="16">
@@ -900,7 +896,7 @@
         <v>-0.05558417653210839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.8737793935138495</v>
+        <v>-0.8737793935138488</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.5488806094680517</v>
@@ -909,7 +905,7 @@
         <v>-0.1163137163990298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.3521917357233019</v>
+        <v>-0.3521917357233016</v>
       </c>
     </row>
     <row r="17">
@@ -920,18 +916,18 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.190491940106465</v>
+        <v>-1.370439643349356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9904747959921087</v>
+        <v>-1.009925528366794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.509564828044557</v>
+        <v>-2.506948434184845</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.6953712926595436</v>
+        <v>-0.7118888426777212</v>
       </c>
     </row>
     <row r="18">
@@ -942,18 +938,18 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3614831918578338</v>
+        <v>0.2132806645516567</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8176770577578831</v>
+        <v>0.6371345088678065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4410905423892439</v>
+        <v>0.4691585974698064</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.3977082210348046</v>
+        <v>0.3206742005363204</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +970,7 @@
         <v>-0.1057056598630916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.05921487162841924</v>
+        <v>0.05921487162841958</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08223039966997855</v>
@@ -983,7 +979,7 @@
         <v>-0.05339536246068344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03406432593663427</v>
+        <v>0.03406432593663448</v>
       </c>
     </row>
     <row r="20">
@@ -994,22 +990,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.233301159152971</v>
+        <v>-2.362048923369486</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.530747757750456</v>
+        <v>-2.428509818091927</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.358979093149148</v>
+        <v>-1.206994099428621</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7621963448621009</v>
+        <v>-0.7624378202295462</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8051615133255902</v>
+        <v>-0.7637872584301907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5507083721412674</v>
+        <v>-0.5089394180728523</v>
       </c>
     </row>
     <row r="21">
@@ -1020,22 +1016,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.740954037402494</v>
+        <v>1.706295377573883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.235214790600968</v>
+        <v>2.005488257569496</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.282652124485523</v>
+        <v>1.529112347071263</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.984436281089922</v>
+        <v>2.434010361521523</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.82032662496698</v>
+        <v>2.429061578401932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.386255040169887</v>
+        <v>1.680498739693928</v>
       </c>
     </row>
     <row r="22">
@@ -1056,7 +1052,7 @@
         <v>0.4757544105352469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.865470355230897</v>
+        <v>-1.865470355230898</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.3933260691759261</v>
@@ -1076,22 +1072,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.778058363413043</v>
+        <v>-6.478124285374154</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.855899142969206</v>
+        <v>-1.559707137704697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.396848936830121</v>
+        <v>-4.146023136159883</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.7835648149595303</v>
+        <v>-0.8109435366425661</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7098160021196688</v>
+        <v>-0.6087425420433338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.680645085724269</v>
+        <v>-0.6721783533881235</v>
       </c>
     </row>
     <row r="24">
@@ -1102,22 +1098,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.173617578820365</v>
+        <v>1.352322823460541</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.982521290699434</v>
+        <v>3.075923899646294</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1372277969816973</v>
+        <v>0.2775924163933174</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.4817710632859464</v>
+        <v>0.6080314390532653</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.161484170012475</v>
+        <v>4.268640220208473</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07751030186980794</v>
+        <v>0.1050703990899557</v>
       </c>
     </row>
     <row r="25">
@@ -1158,22 +1154,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.775754343064428</v>
+        <v>-0.7865680462755251</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.4296981357045436</v>
+        <v>-0.4160037655181751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.690500427814622</v>
+        <v>-0.6419779760005733</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6028635768519219</v>
+        <v>-0.5932240924583104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5382417851677409</v>
+        <v>-0.5395327048307818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.435911035456863</v>
+        <v>-0.4321013285504455</v>
       </c>
     </row>
     <row r="27">
@@ -1184,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.165073989841926</v>
+        <v>0.126271645574015</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3823749740376493</v>
+        <v>0.3523387955633164</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1705421401591196</v>
+        <v>0.2128002431743016</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2521268638528452</v>
+        <v>0.1955916968152126</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9148364502013658</v>
+        <v>0.7850147940858968</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1845945724553292</v>
+        <v>0.2271891309076229</v>
       </c>
     </row>
     <row r="28">
